--- a/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
+++ b/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Documents/Research/ CSSRforAfrica/Work Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA919E-75A0-DA41-A6F3-437547E50D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29D6E2-D200-9645-BAE9-32B956CF9663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8620" yWindow="460" windowWidth="22640" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="1" r:id="rId1"/>
@@ -1460,6 +1460,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1483,33 +1486,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,6 +1522,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1555,11 +1537,29 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1797,10 +1797,10 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" ht="144.75" customHeight="1">
       <c r="A3" s="3">
@@ -1924,31 +1924,31 @@
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="27">
         <v>45108</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="27">
         <v>45838</v>
       </c>
@@ -2042,13 +2042,13 @@
       <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:26" ht="16">
       <c r="A14" s="18"/>
@@ -2082,11 +2082,11 @@
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="21" t="s">
         <v>19</v>
       </c>
@@ -2098,11 +2098,11 @@
       <c r="C19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="15" t="s">
         <v>90</v>
       </c>
@@ -2114,11 +2114,11 @@
       <c r="C20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="15" t="s">
         <v>89</v>
       </c>
@@ -2130,11 +2130,11 @@
       <c r="C21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="15" t="s">
         <v>88</v>
       </c>
@@ -2146,11 +2146,11 @@
       <c r="C22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="15" t="s">
         <v>92</v>
       </c>
@@ -2162,11 +2162,11 @@
       <c r="C23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="15" t="s">
         <v>94</v>
       </c>
@@ -2178,11 +2178,11 @@
       <c r="C24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="15" t="s">
         <v>96</v>
       </c>
@@ -2194,11 +2194,11 @@
       <c r="C25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="15" t="s">
         <v>98</v>
       </c>
@@ -2210,32 +2210,32 @@
       <c r="C26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="D27" s="63"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="D29" s="63"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2266,8 +2266,8 @@
   <dimension ref="A1:S982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S62" sqref="S62"/>
+      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2292,104 +2292,104 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="93" t="str">
         <f>'Project Information '!C3</f>
         <v>Culturally Sensitive Social Robotics for Africa (CSSR4Africa)</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="34"/>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="90"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="82"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="87">
         <f>'Project Information '!C4</f>
         <v>45108</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="91"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="87">
         <f>'Project Information '!C5</f>
         <v>45838</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="C4" s="88"/>
+      <c r="G4" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="77" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="92"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="84"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="35"/>
@@ -2450,12 +2450,12 @@
       <c r="A6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="96" t="str">
+      <c r="B6" s="92" t="str">
         <f>'Project Information '!C19</f>
         <v>African Cultural Knowledge</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="43"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -2645,12 +2645,12 @@
       <c r="A12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="75" t="str">
+      <c r="B12" s="85" t="str">
         <f>'Project Information '!C20</f>
         <v>Interaction Scenario Specification</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="52"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -2805,12 +2805,12 @@
       <c r="A17" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="75" t="str">
+      <c r="B17" s="85" t="str">
         <f>'Project Information '!C21</f>
         <v>Systems Engineering</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="52"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -3073,12 +3073,12 @@
       <c r="A24" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="75" t="str">
+      <c r="B24" s="85" t="str">
         <f>'Project Information '!C22</f>
         <v>Robot Sensing</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="52"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -3420,12 +3420,12 @@
       <c r="A34" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="75" t="str">
+      <c r="B34" s="85" t="str">
         <f>'Project Information '!C23</f>
         <v>Robot Behaviors</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="52"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -3845,12 +3845,12 @@
       <c r="A46" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="75" t="str">
+      <c r="B46" s="85" t="str">
         <f>'Project Information '!C24</f>
         <v>Use Case Evaluation</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="52"/>
       <c r="F46" s="37"/>
     </row>
@@ -3957,12 +3957,12 @@
       <c r="A50" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="75" t="str">
+      <c r="B50" s="85" t="str">
         <f>'Project Information '!C25</f>
         <v>Dissemination and Impact</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="52"/>
       <c r="F50" s="35"/>
     </row>
@@ -4166,12 +4166,12 @@
       <c r="A55" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="75" t="str">
+      <c r="B55" s="85" t="str">
         <f>'Project Information '!C26</f>
         <v>Project Management</v>
       </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
       <c r="E55" s="52"/>
       <c r="F55" s="35"/>
     </row>
@@ -4457,7 +4457,7 @@
     <row r="63" spans="1:19" ht="12.75" customHeight="1">
       <c r="A63" s="35"/>
       <c r="B63" s="35"/>
-      <c r="C63" s="97"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -23776,8 +23776,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
@@ -23793,6 +23791,8 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
+++ b/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Documents/Research/ CSSRforAfrica/Work Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29D6E2-D200-9645-BAE9-32B956CF9663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B07729-C96B-034C-AB76-EE84B3AC5EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1465,10 +1465,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1479,13 +1485,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,12 +1540,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1536,12 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1554,12 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1924,11 +1924,11 @@
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>237</v>
       </c>
       <c r="D3" s="63"/>
@@ -1936,7 +1936,7 @@
       <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="63"/>
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="63"/>
@@ -2042,13 +2042,13 @@
       <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:26" ht="16">
       <c r="A14" s="18"/>
@@ -2082,7 +2082,7 @@
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="63"/>
@@ -2098,11 +2098,11 @@
       <c r="C19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="15" t="s">
         <v>90</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="C20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="63"/>
@@ -2130,7 +2130,7 @@
       <c r="C21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="66" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="63"/>
@@ -2146,11 +2146,11 @@
       <c r="C22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="15" t="s">
         <v>92</v>
       </c>
@@ -2162,11 +2162,11 @@
       <c r="C23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="15" t="s">
         <v>94</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="63"/>
@@ -2194,7 +2194,7 @@
       <c r="C25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="66" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="63"/>
@@ -2210,7 +2210,7 @@
       <c r="C26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="66" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="63"/>
@@ -2220,25 +2220,35 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="D27" s="64"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="D28" s="64"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="D29" s="64"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
       <c r="G29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D19:F19"/>
@@ -2246,16 +2256,6 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2265,16 +2265,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U57" sqref="U57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="34" style="26" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" style="26" customWidth="1"/>
     <col min="4" max="4" width="122.5" style="26" customWidth="1"/>
     <col min="5" max="5" width="16" style="26" customWidth="1"/>
     <col min="6" max="6" width="1.5" style="26" customWidth="1"/>
@@ -2292,104 +2292,104 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="75"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="95" t="str">
         <f>'Project Information '!C3</f>
         <v>Culturally Sensitive Social Robotics for Africa (CSSR4Africa)</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="34"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="82"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="88"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="91">
         <f>'Project Information '!C4</f>
         <v>45108</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="83"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="91">
         <f>'Project Information '!C5</f>
         <v>45838</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="G4" s="89" t="s">
+      <c r="C4" s="92"/>
+      <c r="G4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="96" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="97" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="84"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="90"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="35"/>
@@ -2450,12 +2450,12 @@
       <c r="A6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="92" t="str">
+      <c r="B6" s="94" t="str">
         <f>'Project Information '!C19</f>
         <v>African Cultural Knowledge</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="43"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -2645,12 +2645,12 @@
       <c r="A12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="85" t="str">
+      <c r="B12" s="73" t="str">
         <f>'Project Information '!C20</f>
         <v>Interaction Scenario Specification</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="52"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -2805,12 +2805,12 @@
       <c r="A17" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="85" t="str">
+      <c r="B17" s="73" t="str">
         <f>'Project Information '!C21</f>
         <v>Systems Engineering</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="52"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -3073,12 +3073,12 @@
       <c r="A24" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="85" t="str">
+      <c r="B24" s="73" t="str">
         <f>'Project Information '!C22</f>
         <v>Robot Sensing</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="52"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -3420,12 +3420,12 @@
       <c r="A34" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="85" t="str">
+      <c r="B34" s="73" t="str">
         <f>'Project Information '!C23</f>
         <v>Robot Behaviors</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="52"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -3845,12 +3845,12 @@
       <c r="A46" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="85" t="str">
+      <c r="B46" s="73" t="str">
         <f>'Project Information '!C24</f>
         <v>Use Case Evaluation</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="52"/>
       <c r="F46" s="37"/>
     </row>
@@ -3957,12 +3957,12 @@
       <c r="A50" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="85" t="str">
+      <c r="B50" s="73" t="str">
         <f>'Project Information '!C25</f>
         <v>Dissemination and Impact</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="52"/>
       <c r="F50" s="35"/>
     </row>
@@ -4166,12 +4166,12 @@
       <c r="A55" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="85" t="str">
+      <c r="B55" s="73" t="str">
         <f>'Project Information '!C26</f>
         <v>Project Management</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="52"/>
       <c r="F55" s="35"/>
     </row>
@@ -23776,6 +23776,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
@@ -23792,7 +23793,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
+++ b/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Documents/Research/ CSSRforAfrica/Work Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B07729-C96B-034C-AB76-EE84B3AC5EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D7A5E-E0E6-EB47-8A10-A8451CC048B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="246">
   <si>
     <t>Guidelines for the SoW Inclusive and Digital Transformation Grant Projects</t>
   </si>
@@ -438,9 +438,6 @@
     <t>Gesture Execution.</t>
   </si>
   <si>
-    <t>Text to Speech Conversion.</t>
-  </si>
-  <si>
     <t>Environment Map Generation.</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>﻿Develop a software module  that enables the Pepper robot to execute body and hand gestures.</t>
   </si>
   <si>
-    <t>Implement a text to speech facility that will allow the Pepper robot to communicate with humans using spoken language.</t>
-  </si>
-  <si>
     <t xml:space="preserve">﻿Develop a software module to generate a metric map of the environments that will be used in the two use case scenarios documented in Deliverable D2.1. </t>
   </si>
   <si>
@@ -717,9 +711,6 @@
     <t>Deliverable D5.5.1 (*).</t>
   </si>
   <si>
-    <t>Deliverable D5.5.2 (*).</t>
-  </si>
-  <si>
     <t>Deliverable D5.5.3 (*).</t>
   </si>
   <si>
@@ -778,6 +769,33 @@
   </si>
   <si>
     <t>Rwandan Cultural Knowledge Survey.</t>
+  </si>
+  <si>
+    <t>Text to Speech Conversion (English).</t>
+  </si>
+  <si>
+    <t>Text to Speech Conversion (isiZulu).</t>
+  </si>
+  <si>
+    <t>Text to Speech Conversion (Kinyarwanda).</t>
+  </si>
+  <si>
+    <t>Implement a text to speech facility that will allow the Pepper robot to communicate with humans using spoken English.</t>
+  </si>
+  <si>
+    <t>Implement a text to speech facility that will allow the Pepper robot to communicate with humans using spoken isiZulu.</t>
+  </si>
+  <si>
+    <t>Implement a text to speech facility that will allow the Pepper robot to communicate with humans using spoken Kinyrwanda.</t>
+  </si>
+  <si>
+    <t>Deliverable D5.5.2.1 (*).</t>
+  </si>
+  <si>
+    <t>Deliverable D5.5.2.2 (*).</t>
+  </si>
+  <si>
+    <t>Deliverable D5.5.2.3 (*).</t>
   </si>
 </sst>
 </file>
@@ -1465,16 +1483,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1485,7 +1497,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1550,15 +1577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,19 +1942,19 @@
       <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="63"/>
-      <c r="C3" s="69" t="s">
-        <v>237</v>
+      <c r="C3" s="67" t="s">
+        <v>234</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="63"/>
@@ -1945,7 +1963,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="63"/>
@@ -2042,13 +2060,13 @@
       <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:26" ht="16">
       <c r="A14" s="18"/>
@@ -2082,7 +2100,7 @@
       <c r="C18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="72" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="63"/>
@@ -2098,11 +2116,11 @@
       <c r="C19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="15" t="s">
         <v>90</v>
       </c>
@@ -2114,7 +2132,7 @@
       <c r="C20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="63"/>
@@ -2130,7 +2148,7 @@
       <c r="C21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="65" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="63"/>
@@ -2146,11 +2164,11 @@
       <c r="C22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="15" t="s">
         <v>92</v>
       </c>
@@ -2162,11 +2180,11 @@
       <c r="C23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="15" t="s">
         <v>94</v>
       </c>
@@ -2178,7 +2196,7 @@
       <c r="C24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="65" t="s">
         <v>95</v>
       </c>
       <c r="E24" s="63"/>
@@ -2194,7 +2212,7 @@
       <c r="C25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="65" t="s">
         <v>97</v>
       </c>
       <c r="E25" s="63"/>
@@ -2210,7 +2228,7 @@
       <c r="C26" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="65" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="63"/>
@@ -2220,35 +2238,25 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="D27" s="72"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="D28" s="72"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="D29" s="72"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="63"/>
       <c r="F29" s="63"/>
       <c r="G29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C13:G13"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D19:F19"/>
@@ -2256,6 +2264,16 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2263,11 +2281,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S982"/>
+  <dimension ref="A1:S984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2276,7 +2294,7 @@
     <col min="2" max="2" width="8.33203125" style="26" customWidth="1"/>
     <col min="3" max="3" width="35.1640625" style="26" customWidth="1"/>
     <col min="4" max="4" width="122.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="16" style="26" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="26" customWidth="1"/>
     <col min="6" max="6" width="1.5" style="26" customWidth="1"/>
     <col min="7" max="18" width="2.83203125" style="26" customWidth="1"/>
     <col min="19" max="19" width="23.1640625" style="26" customWidth="1"/>
@@ -2292,104 +2310,104 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="81"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="95" t="str">
+      <c r="B2" s="73" t="str">
         <f>'Project Information '!C3</f>
         <v>Culturally Sensitive Social Robotics for Africa (CSSR4Africa)</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="34"/>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="88"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="91"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="94">
         <f>'Project Information '!C4</f>
         <v>45108</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="89"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="92"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="94">
         <f>'Project Information '!C5</f>
         <v>45838</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="G4" s="93" t="s">
+      <c r="C4" s="95"/>
+      <c r="G4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="75" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="90"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="93"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="35"/>
@@ -2400,7 +2418,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>37</v>
@@ -2450,12 +2468,12 @@
       <c r="A6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="94" t="str">
+      <c r="B6" s="97" t="str">
         <f>'Project Information '!C19</f>
         <v>African Cultural Knowledge</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="43"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -2478,20 +2496,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
@@ -2513,20 +2531,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
@@ -2551,16 +2569,16 @@
         <v>101</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" s="47"/>
       <c r="K9" s="48"/>
@@ -2584,16 +2602,16 @@
         <v>102</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
       <c r="I10" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="47"/>
       <c r="K10" s="48"/>
@@ -2617,10 +2635,10 @@
         <v>103</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="47"/>
@@ -2632,7 +2650,7 @@
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
       <c r="O11" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
@@ -2645,12 +2663,12 @@
       <c r="A12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="73" t="str">
+      <c r="B12" s="76" t="str">
         <f>'Project Information '!C20</f>
         <v>Interaction Scenario Specification</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="52"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -2676,17 +2694,17 @@
         <v>104</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
@@ -2711,15 +2729,15 @@
         <v>105</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
@@ -2744,15 +2762,15 @@
         <v>106</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
@@ -2777,10 +2795,10 @@
         <v>103</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="47"/>
@@ -2792,7 +2810,7 @@
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -2805,12 +2823,12 @@
       <c r="A17" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="73" t="str">
+      <c r="B17" s="76" t="str">
         <f>'Project Information '!C21</f>
         <v>Systems Engineering</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="52"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -2836,20 +2854,20 @@
         <v>107</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J18" s="47"/>
       <c r="K18" s="48"/>
@@ -2873,14 +2891,14 @@
         <v>108</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
@@ -2906,47 +2924,47 @@
         <v>109</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M20" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N20" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O20" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S20" s="50" t="s">
         <v>62</v>
@@ -2961,18 +2979,18 @@
         <v>110</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="47"/>
       <c r="H21" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J21" s="47"/>
       <c r="K21" s="48"/>
@@ -2996,41 +3014,41 @@
         <v>111</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
       <c r="J22" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M22" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O22" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P22" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S22" s="50" t="s">
         <v>62</v>
@@ -3045,10 +3063,10 @@
         <v>103</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="47"/>
@@ -3060,7 +3078,7 @@
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
       <c r="O23" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
@@ -3073,12 +3091,12 @@
       <c r="A24" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="73" t="str">
+      <c r="B24" s="76" t="str">
         <f>'Project Information '!C22</f>
         <v>Robot Sensing</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="52"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -3104,17 +3122,17 @@
         <v>112</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
@@ -3139,17 +3157,17 @@
         <v>113</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
@@ -3174,17 +3192,17 @@
         <v>114</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
@@ -3209,17 +3227,17 @@
         <v>115</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
@@ -3244,22 +3262,22 @@
         <v>116</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
@@ -3281,15 +3299,15 @@
         <v>117</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -3314,22 +3332,22 @@
         <v>118</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
       <c r="I31" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
@@ -3351,22 +3369,22 @@
         <v>119</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
       <c r="I32" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J32" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
@@ -3388,10 +3406,10 @@
         <v>103</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="47"/>
@@ -3403,13 +3421,13 @@
       <c r="M33" s="48"/>
       <c r="N33" s="48"/>
       <c r="O33" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P33" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q33" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R33" s="49"/>
       <c r="S33" s="50" t="s">
@@ -3420,12 +3438,12 @@
       <c r="A34" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="73" t="str">
+      <c r="B34" s="76" t="str">
         <f>'Project Information '!C23</f>
         <v>Robot Behaviors</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="52"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -3451,17 +3469,17 @@
         <v>120</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -3486,18 +3504,18 @@
         <v>121</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="47"/>
       <c r="H36" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I36" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J36" s="47"/>
       <c r="K36" s="48"/>
@@ -3521,22 +3539,22 @@
         <v>122</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L37" s="48"/>
       <c r="M37" s="48"/>
@@ -3555,26 +3573,26 @@
         <v>5.4</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L38" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
@@ -3595,19 +3613,19 @@
         <v>123</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
@@ -3630,10 +3648,10 @@
         <v>124</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="47"/>
@@ -3641,10 +3659,10 @@
       <c r="I40" s="47"/>
       <c r="J40" s="47"/>
       <c r="K40" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L40" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M40" s="48"/>
       <c r="N40" s="48"/>
@@ -3665,24 +3683,24 @@
         <v>125</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K41" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L41" s="48"/>
       <c r="M41" s="48"/>
@@ -3701,22 +3719,22 @@
         <v>5.8</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
@@ -3736,25 +3754,23 @@
         <v>5.9</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F43" s="37"/>
-      <c r="G43" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>142</v>
-      </c>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
       <c r="I43" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="47"/>
+        <v>141</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="K43" s="48"/>
       <c r="L43" s="48"/>
       <c r="M43" s="48"/>
@@ -3764,7 +3780,7 @@
       <c r="Q43" s="49"/>
       <c r="R43" s="49"/>
       <c r="S43" s="50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="12.75" customHeight="1">
@@ -3773,27 +3789,25 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
+      <c r="I44" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="48" t="s">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
       <c r="M44" s="48"/>
       <c r="N44" s="48"/>
       <c r="O44" s="49"/>
@@ -3810,129 +3824,137 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F45" s="37"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
+      <c r="G45" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="J45" s="47"/>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
       <c r="M45" s="48"/>
       <c r="N45" s="48"/>
-      <c r="O45" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P45" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q45" s="49" t="s">
-        <v>142</v>
-      </c>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A46" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="73" t="str">
-        <f>'Project Information '!C24</f>
-        <v>Use Case Evaluation</v>
-      </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="52"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="54">
+        <v>5.12</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>218</v>
+      </c>
       <c r="F46" s="37"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="50" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="45">
-        <v>6.1</v>
+        <v>5.13</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="F47" s="35"/>
+        <v>219</v>
+      </c>
+      <c r="F47" s="37"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
       <c r="J47" s="47"/>
       <c r="K47" s="48"/>
       <c r="L47" s="48"/>
-      <c r="M47" s="48" t="s">
-        <v>142</v>
-      </c>
+      <c r="M47" s="48"/>
       <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
+      <c r="O47" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P47" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q47" s="49" t="s">
+        <v>141</v>
+      </c>
       <c r="R47" s="49"/>
       <c r="S47" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45">
-        <v>6.2</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="50" t="s">
-        <v>65</v>
-      </c>
+      <c r="A48" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="76" t="str">
+        <f>'Project Information '!C24</f>
+        <v>Use Case Evaluation</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="37"/>
     </row>
     <row r="49" spans="1:19" ht="12.75" customHeight="1">
       <c r="A49" s="44"/>
       <c r="B49" s="45">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="47"/>
@@ -3941,189 +3963,147 @@
       <c r="J49" s="47"/>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
+      <c r="M49" s="48" t="s">
+        <v>141</v>
+      </c>
       <c r="N49" s="48"/>
       <c r="O49" s="49"/>
       <c r="P49" s="49"/>
       <c r="Q49" s="49"/>
-      <c r="R49" s="49" t="s">
-        <v>142</v>
-      </c>
+      <c r="R49" s="49"/>
       <c r="S49" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A50" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="73" t="str">
-        <f>'Project Information '!C25</f>
-        <v>Dissemination and Impact</v>
-      </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="52"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="45">
+        <v>6.2</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>222</v>
+      </c>
       <c r="F50" s="35"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="50" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="12.75" customHeight="1">
       <c r="A51" s="44"/>
       <c r="B51" s="45">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F51" s="35"/>
-      <c r="G51" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J51" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="K51" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="L51" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M51" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="N51" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O51" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P51" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q51" s="49" t="s">
-        <v>142</v>
-      </c>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
       <c r="R51" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S51" s="50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45">
-        <v>7.2</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>228</v>
-      </c>
+      <c r="A52" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="76" t="str">
+        <f>'Project Information '!C25</f>
+        <v>Dissemination and Impact</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="35"/>
-      <c r="G52" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H52" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="L52" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M52" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="N52" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O52" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P52" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q52" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="R52" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="S52" s="50" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="53" spans="1:19" ht="12.75" customHeight="1">
       <c r="A53" s="44"/>
       <c r="B53" s="45">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F53" s="35"/>
-      <c r="G53" s="47"/>
+      <c r="G53" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="H53" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I53" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J53" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L53" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M53" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N53" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O53" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P53" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q53" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R53" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S53" s="50" t="s">
         <v>62</v>
@@ -4132,374 +4112,440 @@
     <row r="54" spans="1:19" ht="12.75" customHeight="1">
       <c r="A54" s="44"/>
       <c r="B54" s="45">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F54" s="35"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
+      <c r="G54" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q54" s="49" t="s">
+        <v>141</v>
+      </c>
       <c r="R54" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S54" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A55" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="73" t="str">
-        <f>'Project Information '!C26</f>
-        <v>Project Management</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="52"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="45">
+        <v>7.3</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>226</v>
+      </c>
       <c r="F55" s="35"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K55" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L55" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M55" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O55" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P55" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q55" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R55" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S55" s="50" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="12.75" customHeight="1">
       <c r="A56" s="44"/>
       <c r="B56" s="45">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F56" s="35"/>
-      <c r="G56" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J56" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="K56" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="L56" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M56" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="N56" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O56" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P56" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q56" s="49" t="s">
-        <v>142</v>
-      </c>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
       <c r="R56" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S56" s="50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>232</v>
-      </c>
+      <c r="A57" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="76" t="str">
+        <f>'Project Information '!C26</f>
+        <v>Project Management</v>
+      </c>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="35"/>
-      <c r="G57" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J57" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="K57" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="L57" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M57" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="N57" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="O57" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="P57" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q57" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="R57" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="S57" s="50" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="58" spans="1:19" ht="12.75" customHeight="1">
       <c r="A58" s="44"/>
       <c r="B58" s="45">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I58" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L58" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M58" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N58" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O58" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P58" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q58" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R58" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S58" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="12.75" customHeight="1">
       <c r="A59" s="44"/>
       <c r="B59" s="45">
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="I59" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J59" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K59" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L59" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N59" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O59" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P59" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q59" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R59" s="49" t="s">
+        <v>141</v>
+      </c>
       <c r="S59" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="12.75" customHeight="1">
       <c r="A60" s="44"/>
       <c r="B60" s="45">
-        <v>8.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H60" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="I60" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J60" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L60" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M60" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N60" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O60" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P60" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q60" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R60" s="49" t="s">
+        <v>141</v>
+      </c>
       <c r="S60" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="12.75" customHeight="1">
       <c r="A61" s="44"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56" t="s">
-        <v>188</v>
+      <c r="B61" s="45">
+        <v>8.4</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>231</v>
       </c>
       <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
+      <c r="G61" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="50" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A62" s="57"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="45">
+        <v>8.5</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>185</v>
+      </c>
       <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
+      <c r="G62" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="50" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56" t="s">
+        <v>186</v>
+      </c>
       <c r="F63" s="35"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="58"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
       <c r="S63" s="35"/>
     </row>
     <row r="64" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A64" s="35"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
       <c r="F64" s="35"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
-      <c r="Q64" s="58"/>
-      <c r="R64" s="58"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
       <c r="S64" s="35"/>
     </row>
     <row r="65" spans="1:19" ht="12.75" customHeight="1">
       <c r="A65" s="35"/>
       <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
@@ -7044,18 +7090,18 @@
       <c r="D186" s="35"/>
       <c r="E186" s="35"/>
       <c r="F186" s="35"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="59"/>
-      <c r="L186" s="59"/>
-      <c r="M186" s="59"/>
-      <c r="N186" s="59"/>
-      <c r="O186" s="59"/>
-      <c r="P186" s="59"/>
-      <c r="Q186" s="59"/>
-      <c r="R186" s="59"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="58"/>
+      <c r="L186" s="58"/>
+      <c r="M186" s="58"/>
+      <c r="N186" s="58"/>
+      <c r="O186" s="58"/>
+      <c r="P186" s="58"/>
+      <c r="Q186" s="58"/>
+      <c r="R186" s="58"/>
       <c r="S186" s="35"/>
     </row>
     <row r="187" spans="1:19" ht="12.75" customHeight="1">
@@ -7065,18 +7111,18 @@
       <c r="D187" s="35"/>
       <c r="E187" s="35"/>
       <c r="F187" s="35"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
-      <c r="L187" s="59"/>
-      <c r="M187" s="59"/>
-      <c r="N187" s="59"/>
-      <c r="O187" s="59"/>
-      <c r="P187" s="59"/>
-      <c r="Q187" s="59"/>
-      <c r="R187" s="59"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="58"/>
+      <c r="J187" s="58"/>
+      <c r="K187" s="58"/>
+      <c r="L187" s="58"/>
+      <c r="M187" s="58"/>
+      <c r="N187" s="58"/>
+      <c r="O187" s="58"/>
+      <c r="P187" s="58"/>
+      <c r="Q187" s="58"/>
+      <c r="R187" s="58"/>
       <c r="S187" s="35"/>
     </row>
     <row r="188" spans="1:19" ht="12.75" customHeight="1">
@@ -23774,17 +23820,60 @@
       <c r="R982" s="59"/>
       <c r="S982" s="35"/>
     </row>
+    <row r="983" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A983" s="35"/>
+      <c r="B983" s="35"/>
+      <c r="C983" s="35"/>
+      <c r="D983" s="35"/>
+      <c r="E983" s="35"/>
+      <c r="F983" s="35"/>
+      <c r="G983" s="59"/>
+      <c r="H983" s="59"/>
+      <c r="I983" s="59"/>
+      <c r="J983" s="59"/>
+      <c r="K983" s="59"/>
+      <c r="L983" s="59"/>
+      <c r="M983" s="59"/>
+      <c r="N983" s="59"/>
+      <c r="O983" s="59"/>
+      <c r="P983" s="59"/>
+      <c r="Q983" s="59"/>
+      <c r="R983" s="59"/>
+      <c r="S983" s="35"/>
+    </row>
+    <row r="984" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A984" s="35"/>
+      <c r="B984" s="35"/>
+      <c r="C984" s="35"/>
+      <c r="D984" s="35"/>
+      <c r="E984" s="35"/>
+      <c r="F984" s="35"/>
+      <c r="G984" s="59"/>
+      <c r="H984" s="59"/>
+      <c r="I984" s="59"/>
+      <c r="J984" s="59"/>
+      <c r="K984" s="59"/>
+      <c r="L984" s="59"/>
+      <c r="M984" s="59"/>
+      <c r="N984" s="59"/>
+      <c r="O984" s="59"/>
+      <c r="P984" s="59"/>
+      <c r="Q984" s="59"/>
+      <c r="R984" s="59"/>
+      <c r="S984" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="G2:R3"/>
     <mergeCell ref="S2:S4"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:J4"/>
@@ -23792,7 +23881,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23803,7 +23891,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$3:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>S35:S45 S13:S16 S18:S23 S7:S11 S47:S49 S51:S54 S56:S60 S25:S33</xm:sqref>
+          <xm:sqref>S25:S33 S13:S16 S18:S23 S7:S11 S49:S51 S53:S56 S58:S62 S35:S47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
+++ b/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Documents/Research/ CSSRforAfrica/Work Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D7A5E-E0E6-EB47-8A10-A8451CC048B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06E00B-B420-E84B-B6E7-A083F74E2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="249">
   <si>
     <t>Guidelines for the SoW Inclusive and Digital Transformation Grant Projects</t>
   </si>
@@ -771,15 +771,6 @@
     <t>Rwandan Cultural Knowledge Survey.</t>
   </si>
   <si>
-    <t>Text to Speech Conversion (English).</t>
-  </si>
-  <si>
-    <t>Text to Speech Conversion (isiZulu).</t>
-  </si>
-  <si>
-    <t>Text to Speech Conversion (Kinyarwanda).</t>
-  </si>
-  <si>
     <t>Implement a text to speech facility that will allow the Pepper robot to communicate with humans using spoken English.</t>
   </si>
   <si>
@@ -796,6 +787,24 @@
   </si>
   <si>
     <t>Deliverable D5.5.2.3 (*).</t>
+  </si>
+  <si>
+    <t>English Text to Speech Conversion.</t>
+  </si>
+  <si>
+    <t>isiZulu Text to Speech Conversion.</t>
+  </si>
+  <si>
+    <t>Kinyarwanda Text to Speech Conversion.</t>
+  </si>
+  <si>
+    <t>Integrated Text to Speech Conversion.</t>
+  </si>
+  <si>
+    <t>Implement a text to speech facility that will allow the Pepper robot to communicate with humans using spoken English, isiZulu, and Kinyrwanda.</t>
+  </si>
+  <si>
+    <t>Deliverable D5.5.2.4 (*).</t>
   </si>
 </sst>
 </file>
@@ -2281,11 +2290,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S984"/>
+  <dimension ref="A1:S985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S44" sqref="S44"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3719,13 +3728,13 @@
         <v>5.8</v>
       </c>
       <c r="C42" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="E42" s="53" t="s">
         <v>240</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>243</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="47"/>
@@ -3754,13 +3763,13 @@
         <v>5.9</v>
       </c>
       <c r="C43" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="E43" s="53" t="s">
         <v>241</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>244</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="47"/>
@@ -3789,13 +3798,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C44" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="E44" s="53" t="s">
         <v>242</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>245</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="47"/>
@@ -3820,29 +3829,27 @@
     </row>
     <row r="45" spans="1:19" ht="12.75" customHeight="1">
       <c r="A45" s="44"/>
-      <c r="B45" s="45">
-        <v>5.1100000000000003</v>
+      <c r="B45" s="54">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="F45" s="37"/>
-      <c r="G45" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="47" t="s">
-        <v>141</v>
-      </c>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="47"/>
+      <c r="J45" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
       <c r="M45" s="48"/>
@@ -3852,36 +3859,36 @@
       <c r="Q45" s="49"/>
       <c r="R45" s="49"/>
       <c r="S45" s="50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="12.75" customHeight="1">
       <c r="A46" s="44"/>
-      <c r="B46" s="54">
-        <v>5.12</v>
+      <c r="B46" s="45">
+        <v>5.1100000000000003</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" s="37"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47" t="s">
+      <c r="G46" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="K46" s="48" t="s">
+      <c r="H46" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="L46" s="48" t="s">
+      <c r="I46" s="47" t="s">
         <v>141</v>
       </c>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
       <c r="M46" s="48"/>
       <c r="N46" s="48"/>
       <c r="O46" s="49"/>
@@ -3894,100 +3901,104 @@
     </row>
     <row r="47" spans="1:19" ht="12.75" customHeight="1">
       <c r="A47" s="44"/>
-      <c r="B47" s="45">
-        <v>5.13</v>
+      <c r="B47" s="54">
+        <v>5.12</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
+      <c r="J47" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>141</v>
+      </c>
       <c r="M47" s="48"/>
       <c r="N47" s="48"/>
-      <c r="O47" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="P47" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q47" s="49" t="s">
-        <v>141</v>
-      </c>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
       <c r="R47" s="49"/>
       <c r="S47" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="45">
+        <v>5.13</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="37"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q48" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R48" s="49"/>
+      <c r="S48" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A49" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="76" t="str">
+      <c r="B49" s="76" t="str">
         <f>'Project Information '!C24</f>
         <v>Use Case Evaluation</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="37"/>
-    </row>
-    <row r="49" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45">
-        <v>6.1</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="N49" s="48"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="50" t="s">
-        <v>65</v>
-      </c>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="37"/>
     </row>
     <row r="50" spans="1:19" ht="12.75" customHeight="1">
       <c r="A50" s="44"/>
       <c r="B50" s="45">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="47"/>
@@ -3996,10 +4007,10 @@
       <c r="J50" s="47"/>
       <c r="K50" s="48"/>
       <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48" t="s">
+      <c r="M50" s="48" t="s">
         <v>141</v>
       </c>
+      <c r="N50" s="48"/>
       <c r="O50" s="49"/>
       <c r="P50" s="49"/>
       <c r="Q50" s="49"/>
@@ -4011,16 +4022,16 @@
     <row r="51" spans="1:19" ht="12.75" customHeight="1">
       <c r="A51" s="44"/>
       <c r="B51" s="45">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="47"/>
@@ -4030,98 +4041,76 @@
       <c r="K51" s="48"/>
       <c r="L51" s="48"/>
       <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
+      <c r="N51" s="48" t="s">
+        <v>141</v>
+      </c>
       <c r="O51" s="49"/>
       <c r="P51" s="49"/>
       <c r="Q51" s="49"/>
-      <c r="R51" s="49" t="s">
-        <v>141</v>
-      </c>
+      <c r="R51" s="49"/>
       <c r="S51" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="45">
+        <v>6.3</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S52" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A53" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="76" t="str">
+      <c r="B53" s="76" t="str">
         <f>'Project Information '!C25</f>
         <v>Dissemination and Impact</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45">
-        <v>7.1</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>224</v>
-      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="35"/>
-      <c r="G53" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="J53" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="K53" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L53" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="M53" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="N53" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="O53" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="P53" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q53" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="R53" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="S53" s="50" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="54" spans="1:19" ht="12.75" customHeight="1">
       <c r="A54" s="44"/>
       <c r="B54" s="45">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="47" t="s">
@@ -4161,25 +4150,27 @@
         <v>141</v>
       </c>
       <c r="S54" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="12.75" customHeight="1">
       <c r="A55" s="44"/>
       <c r="B55" s="45">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F55" s="35"/>
-      <c r="G55" s="47"/>
+      <c r="G55" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="H55" s="47" t="s">
         <v>141</v>
       </c>
@@ -4214,123 +4205,121 @@
         <v>141</v>
       </c>
       <c r="S55" s="50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="12.75" customHeight="1">
       <c r="A56" s="44"/>
       <c r="B56" s="45">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
+      <c r="H56" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K56" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L56" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N56" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O56" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P56" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q56" s="49" t="s">
+        <v>141</v>
+      </c>
       <c r="R56" s="49" t="s">
         <v>141</v>
       </c>
       <c r="S56" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A57" s="44"/>
+      <c r="B57" s="45">
+        <v>7.4</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="S57" s="50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A57" s="51" t="s">
+    <row r="58" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A58" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="76" t="str">
+      <c r="B58" s="76" t="str">
         <f>'Project Information '!C26</f>
         <v>Project Management</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="35"/>
-    </row>
-    <row r="58" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45">
-        <v>8.1</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>228</v>
-      </c>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="35"/>
-      <c r="G58" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="H58" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="I58" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="J58" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="K58" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L58" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="M58" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="N58" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="O58" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="P58" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q58" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="R58" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="S58" s="50" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="59" spans="1:19" ht="12.75" customHeight="1">
       <c r="A59" s="44"/>
       <c r="B59" s="45">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="47" t="s">
@@ -4376,16 +4365,16 @@
     <row r="60" spans="1:19" ht="12.75" customHeight="1">
       <c r="A60" s="44"/>
       <c r="B60" s="45">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="47" t="s">
@@ -4425,22 +4414,22 @@
         <v>141</v>
       </c>
       <c r="S60" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="12.75" customHeight="1">
       <c r="A61" s="44"/>
       <c r="B61" s="45">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="47" t="s">
@@ -4449,16 +4438,36 @@
       <c r="H61" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
+      <c r="I61" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K61" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L61" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="M61" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N61" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="O61" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P61" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q61" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="R61" s="49" t="s">
+        <v>141</v>
+      </c>
       <c r="S61" s="50" t="s">
         <v>65</v>
       </c>
@@ -4466,16 +4475,16 @@
     <row r="62" spans="1:19" ht="12.75" customHeight="1">
       <c r="A62" s="44"/>
       <c r="B62" s="45">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="47" t="s">
@@ -4500,33 +4509,47 @@
     </row>
     <row r="63" spans="1:19" ht="12.75" customHeight="1">
       <c r="A63" s="44"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56" t="s">
+      <c r="B63" s="45">
+        <v>8.5</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="35"/>
+      <c r="G63" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A64" s="44"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-    </row>
-    <row r="64" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A64" s="57"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
@@ -4543,30 +4566,30 @@
       <c r="S64" s="35"/>
     </row>
     <row r="65" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A65" s="35"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="35"/>
-      <c r="C65" s="61"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
       <c r="F65" s="35"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
       <c r="S65" s="35"/>
     </row>
     <row r="66" spans="1:19" ht="12.75" customHeight="1">
       <c r="A66" s="35"/>
       <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -7132,18 +7155,18 @@
       <c r="D188" s="35"/>
       <c r="E188" s="35"/>
       <c r="F188" s="35"/>
-      <c r="G188" s="59"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="59"/>
-      <c r="J188" s="59"/>
-      <c r="K188" s="59"/>
-      <c r="L188" s="59"/>
-      <c r="M188" s="59"/>
-      <c r="N188" s="59"/>
-      <c r="O188" s="59"/>
-      <c r="P188" s="59"/>
-      <c r="Q188" s="59"/>
-      <c r="R188" s="59"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="58"/>
+      <c r="J188" s="58"/>
+      <c r="K188" s="58"/>
+      <c r="L188" s="58"/>
+      <c r="M188" s="58"/>
+      <c r="N188" s="58"/>
+      <c r="O188" s="58"/>
+      <c r="P188" s="58"/>
+      <c r="Q188" s="58"/>
+      <c r="R188" s="58"/>
       <c r="S188" s="35"/>
     </row>
     <row r="189" spans="1:19" ht="12.75" customHeight="1">
@@ -23862,18 +23885,39 @@
       <c r="R984" s="59"/>
       <c r="S984" s="35"/>
     </row>
+    <row r="985" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A985" s="35"/>
+      <c r="B985" s="35"/>
+      <c r="C985" s="35"/>
+      <c r="D985" s="35"/>
+      <c r="E985" s="35"/>
+      <c r="F985" s="35"/>
+      <c r="G985" s="59"/>
+      <c r="H985" s="59"/>
+      <c r="I985" s="59"/>
+      <c r="J985" s="59"/>
+      <c r="K985" s="59"/>
+      <c r="L985" s="59"/>
+      <c r="M985" s="59"/>
+      <c r="N985" s="59"/>
+      <c r="O985" s="59"/>
+      <c r="P985" s="59"/>
+      <c r="Q985" s="59"/>
+      <c r="R985" s="59"/>
+      <c r="S985" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="G1:S1"/>
     <mergeCell ref="G2:R3"/>
     <mergeCell ref="S2:S4"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:J4"/>
@@ -23891,7 +23935,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$3:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>S25:S33 S13:S16 S18:S23 S7:S11 S49:S51 S53:S56 S58:S62 S35:S47</xm:sqref>
+          <xm:sqref>S25:S33 S13:S16 S18:S23 S7:S11 S50:S52 S54:S57 S59:S63 S35:S48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
+++ b/docs/workplan/CSSR4Africa_SOW-Planner-IDT_Reseach_Grant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/David/Documents/Research/ CSSRforAfrica/Work Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06E00B-B420-E84B-B6E7-A083F74E2854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBA2FD-46AC-8648-8044-B2FA621A5E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
   <si>
     <t>Guidelines for the SoW Inclusive and Digital Transformation Grant Projects</t>
   </si>
@@ -2292,9 +2292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3830,7 +3830,7 @@
     <row r="45" spans="1:19" ht="12.75" customHeight="1">
       <c r="A45" s="44"/>
       <c r="B45" s="54">
-        <v>5.0999999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="C45" s="46" t="s">
         <v>246</v>
@@ -3844,13 +3844,11 @@
       <c r="F45" s="37"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="J45" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="48"/>
       <c r="L45" s="48"/>
       <c r="M45" s="48"/>
       <c r="N45" s="48"/>
@@ -3865,7 +3863,7 @@
     <row r="46" spans="1:19" ht="12.75" customHeight="1">
       <c r="A46" s="44"/>
       <c r="B46" s="45">
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
       <c r="C46" s="46" t="s">
         <v>126</v>
@@ -3902,7 +3900,7 @@
     <row r="47" spans="1:19" ht="12.75" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="54">
-        <v>5.12</v>
+        <v>5.13</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>127</v>
@@ -3939,7 +3937,7 @@
     <row r="48" spans="1:19" ht="12.75" customHeight="1">
       <c r="A48" s="44"/>
       <c r="B48" s="45">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="C48" s="46" t="s">
         <v>103</v>
